--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-10000-2000$-zero.desktop-ENTRY.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-10000-2000$-zero.desktop-ENTRY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93BC9B9-1A98-F048-BD14-C6A2171A4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F468EA-22CB-3C4D-9487-8B2ADCEB4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="9720" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22600" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>个人设置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>setting</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -176,10 +172,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>zero.desktop.setting.integeration</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.desktop.setting.member</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -235,7 +227,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>个人任务</t>
+    <t>zero.desktop.setting.integration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -700,7 +700,7 @@
   <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -898,7 +898,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -913,13 +913,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>23</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10" t="str">
         <f>A$8</f>
@@ -944,20 +944,20 @@
         <v>3</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" ref="B10:B11" si="0">A$8</f>
@@ -973,20 +973,20 @@
         <v>3</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1002,20 +1002,20 @@
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -1030,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>

--- a/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-10000-2000$-zero.desktop-ENTRY.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-ambient/APP-10000-2000$-zero.desktop-ENTRY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F468EA-22CB-3C4D-9487-8B2ADCEB4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30236D-B731-6E48-ADE0-6C0C08473867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22600" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68380" yWindow="-2980" windowWidth="38400" windowHeight="22600" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -157,81 +157,6 @@
   </si>
   <si>
     <t>zero.desktop.my.todo-report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.desktop.setting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.desktop.setting.account</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.desktop.setting.member</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号设置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号集成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员专区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3b0f9f1d-a321-4984-b53c-f96b732c180b</t>
-  </si>
-  <si>
-    <t>ec00fc36-f9bc-493b-86de-8ed8f939169d</t>
-  </si>
-  <si>
-    <t>929e21f7-df06-47b2-ab76-d59a008935af</t>
-  </si>
-  <si>
-    <t>6fa66147-77d2-49a5-933c-6cdf1b8eae3f</t>
-  </si>
-  <si>
-    <t>zero.desktop.app</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的应用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>05ab4116-762c-4dd5-a0bd-341a26d10666</t>
-  </si>
-  <si>
-    <t>appstore</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.desktop.setting.integration</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的设置</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -243,18 +168,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -262,7 +187,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,7 +195,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -278,7 +203,7 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,14 +211,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -697,13 +622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A12" sqref="A8:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="55.1640625" style="2" customWidth="1"/>
@@ -719,7 +644,7 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -737,7 +662,7 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -769,7 +694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -801,7 +726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -821,7 +746,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>31</v>
@@ -831,7 +756,7 @@
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -862,7 +787,7 @@
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>35</v>
       </c>
@@ -895,151 +820,6 @@
       <c r="K7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="10" t="str">
-        <f>A$8</f>
-        <v>3b0f9f1d-a321-4984-b53c-f96b732c180b</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1005</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="10" t="str">
-        <f t="shared" ref="B10:B11" si="0">A$8</f>
-        <v>3b0f9f1d-a321-4984-b53c-f96b732c180b</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1010</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>3b0f9f1d-a321-4984-b53c-f96b732c180b</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1015</v>
-      </c>
-      <c r="E11" s="15">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E12" s="12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
